--- a/biology/Histoire de la zoologie et de la botanique/Olivier_Lachenaud/Olivier_Lachenaud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Olivier_Lachenaud/Olivier_Lachenaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Lachenaud est un botaniste belge[1], chercheur au Jardin botanique de Meise[2]. Il étudie les plantes d'Afrique centrale et occidentale, notamment les espèces de Psychotria. L'IPNI[3] recense 265 taxons de plantes nommés par cet auteur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Lachenaud est un botaniste belge, chercheur au Jardin botanique de Meise. Il étudie les plantes d'Afrique centrale et occidentale, notamment les espèces de Psychotria. L'IPNI recense 265 taxons de plantes nommés par cet auteur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Olivier Lachenaud, « La flore des plantes vasculaires de la République du Congo : nouvelles données », Systematics and Geography of Plants, vol. 79, no 2,‎ 2009, p. 199-214 (ISSN 1374-7886, lire en ligne, consulté le 11 décembre 2020)
 Olivier Lachenaud, « Un nouveau Vangueria (Rubiaceae) des forêts d'Afrique Centrale », Systematics and Geography of Plants, vol. 78, no 1,‎ 2008, p. 131-135 (ISSN 1374-7886, lire en ligne, consulté le 11 décembre 2020)
